--- a/static/combinate.xlsx
+++ b/static/combinate.xlsx
@@ -776,7 +776,7 @@
   <dimension ref="A1:EI42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="12.75"/>
@@ -929,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="21">
         <v>1</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="K2" s="27">
         <f>G2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="26">
         <f>E2</f>
@@ -966,7 +966,7 @@
       </c>
       <c r="P2" s="6">
         <f>F2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="26">
         <f>E2</f>
@@ -974,7 +974,7 @@
       </c>
       <c r="R2" s="6">
         <f>F2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" s="26">
         <f>E2</f>
@@ -986,11 +986,11 @@
       </c>
       <c r="U2" s="6">
         <f>F2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V2" s="27">
         <f>G2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2" s="26">
         <f>E2</f>
@@ -998,11 +998,11 @@
       </c>
       <c r="X2" s="6">
         <f>F2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="27">
         <f>G2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="26">
         <f>E2</f>
@@ -1010,15 +1010,15 @@
       </c>
       <c r="AA2" s="6">
         <f>F2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="6">
         <f>F2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="27">
         <f>G2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="26">
         <f>E2</f>
@@ -1026,11 +1026,11 @@
       </c>
       <c r="AE2" s="6">
         <f>F2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="6">
         <f>F2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="26">
         <f>E2</f>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="AI2" s="27">
         <f>G2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ2" s="26">
         <f>E2</f>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AK2" s="27">
         <f>G2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL2" s="26">
         <f>E2</f>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="AO2" s="28">
         <f>F2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP2" s="26">
         <f>E2</f>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="AS2" s="27">
         <f>G2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT2" s="29"/>
       <c r="AV2" s="11"/>
@@ -1172,163 +1172,163 @@
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="21">
         <v>2</v>
       </c>
       <c r="I3" s="35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" s="27">
         <f>G3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" s="27">
         <f>G3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="26">
         <f t="shared" ref="M3:M16" si="1">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" s="26">
         <f t="shared" ref="N3:N16" si="2">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" s="26">
         <f t="shared" ref="O3:O15" si="3">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" s="26">
         <f t="shared" ref="P3:P16" si="4">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="6">
         <f>F3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="26">
         <f t="shared" ref="R3:R16" si="5">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="6">
         <f>F3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="26">
         <f t="shared" ref="T3:T14" si="6">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U3" s="26">
         <f t="shared" ref="U3:U15" si="7">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V3" s="6">
         <f>F3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="27">
         <f>G3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X3" s="26">
         <f t="shared" ref="X3:X14" si="8">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="6">
         <f>F3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="26">
         <f t="shared" ref="Z3:Z13" si="9">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="26">
         <f t="shared" ref="AA3:AA14" si="10">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="6">
         <f>F3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="6">
         <f>F3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="27">
         <f>G3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="26">
         <f t="shared" ref="AE3:AE15" si="11">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="6">
         <f>F3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="6">
         <f>F3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="26">
         <f t="shared" ref="AH3:AH15" si="12">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="26">
         <f t="shared" ref="AI3:AI16" si="13">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="27">
         <f>G3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK3" s="26">
         <f t="shared" ref="AK3:AK16" si="14">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="27">
         <f>G3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM3" s="26">
         <f t="shared" ref="AM3:AM16" si="15">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="26">
         <f t="shared" ref="AN3:AN16" si="16">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="30">
         <f>G3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP3" s="6">
         <f>F3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" s="26">
         <f t="shared" ref="AQ3:AQ16" si="17">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="26">
         <f t="shared" ref="AR3:AR14" si="18">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="26">
         <f t="shared" ref="AS3:AS15" si="19">E3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="29"/>
       <c r="AV3" s="11"/>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="21">
         <v>3</v>
@@ -1438,15 +1438,15 @@
       </c>
       <c r="K4" s="28">
         <f>F4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="27">
         <f>G4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="27">
         <f>G4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="26">
         <f t="shared" si="2"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="R4" s="6">
         <f>F4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" s="26">
         <f t="shared" ref="S4:S16" si="21">E4</f>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="T4" s="6">
         <f>F4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U4" s="26">
         <f t="shared" si="7"/>
@@ -1486,11 +1486,11 @@
       </c>
       <c r="W4" s="6">
         <f>F4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4" s="27">
         <f>G4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="26">
         <f t="shared" ref="Y4:Y15" si="23">E4</f>
@@ -1510,15 +1510,15 @@
       </c>
       <c r="AC4" s="6">
         <f>F4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="6">
         <f>F4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="27">
         <f>G4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF4" s="26">
         <f t="shared" ref="AF4:AF16" si="25">E4</f>
@@ -1526,11 +1526,11 @@
       </c>
       <c r="AG4" s="6">
         <f>F4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="6">
         <f>F4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="26">
         <f t="shared" si="13"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="AK4" s="27">
         <f>G4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL4" s="26">
         <f t="shared" ref="AL4:AL16" si="27">E4</f>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="AM4" s="27">
         <f>G4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN4" s="26">
         <f t="shared" si="16"/>
@@ -1562,11 +1562,11 @@
       </c>
       <c r="AP4" s="30">
         <f>G4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ4" s="6">
         <f>F4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR4" s="26">
         <f t="shared" si="18"/>
@@ -1910,163 +1910,163 @@
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="21">
         <v>5</v>
       </c>
       <c r="I6" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="27">
         <f>G6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="26">
         <f t="shared" ref="L6:L16" si="34">E6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6">
         <f>F6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="27">
         <f>G6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="27">
         <f>G6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="26">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="26">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="26">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="6">
         <f>F6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" s="26">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="6">
         <f>F6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6" s="26">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="26">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="6">
         <f>F6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="27">
         <f>G6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="26">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="26">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="26">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="26">
         <f t="shared" ref="AD6:AD14" si="35">E6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="6">
         <f>F6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="6">
         <f>F6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="27">
         <f>G6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="26">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="6">
         <f>F6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="6">
         <f>F6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="26">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="26">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="27">
         <f>G6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN6" s="26">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="26">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="26">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="26">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="30">
         <f>G6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS6" s="6">
         <f>F6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="29"/>
       <c r="AV6" s="11"/>
@@ -2156,23 +2156,23 @@
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="19">
         <v>1</v>
       </c>
       <c r="G7" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="21">
         <v>6</v>
       </c>
       <c r="I7" s="35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="28">
         <f>F7</f>
@@ -2180,11 +2180,11 @@
       </c>
       <c r="L7" s="27">
         <f>G7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="6">
         <f>F7</f>
@@ -2192,27 +2192,27 @@
       </c>
       <c r="O7" s="27">
         <f>G7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="27">
         <f>G7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="26">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R7" s="26">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="26">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7" s="26">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U7" s="6">
         <f>F7</f>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="V7" s="26">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W7" s="6">
         <f>F7</f>
@@ -2228,35 +2228,35 @@
       </c>
       <c r="X7" s="26">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="26">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="26">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="27">
         <f>G7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="26">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="26">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="26">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="26">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="6">
         <f>F7</f>
@@ -2268,11 +2268,11 @@
       </c>
       <c r="AH7" s="27">
         <f>G7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI7" s="26">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="6">
         <f>F7</f>
@@ -2284,15 +2284,15 @@
       </c>
       <c r="AL7" s="26">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="26">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="27">
         <f>G7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO7" s="28">
         <f>F7</f>
@@ -2300,19 +2300,19 @@
       </c>
       <c r="AP7" s="26">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="26">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="26">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="27">
         <f>G7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="29"/>
       <c r="AV7" s="11"/>
@@ -2402,10 +2402,10 @@
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="20">
         <v>2</v>
@@ -2414,19 +2414,19 @@
         <v>7</v>
       </c>
       <c r="I8" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="26">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="6">
         <f>F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="27">
         <f>G8</f>
@@ -2434,11 +2434,11 @@
       </c>
       <c r="N8" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="6">
         <f>F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="27">
         <f>G8</f>
@@ -2450,35 +2450,35 @@
       </c>
       <c r="R8" s="26">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="26">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="26">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="26">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="6">
         <f>F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="26">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="6">
         <f>F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="26">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="27">
         <f>G8</f>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="AA8" s="26">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="27">
         <f>G8</f>
@@ -2494,27 +2494,27 @@
       </c>
       <c r="AC8" s="26">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="26">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="26">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="26">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="6">
         <f>F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="6">
         <f>F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="27">
         <f>G8</f>
@@ -2522,23 +2522,23 @@
       </c>
       <c r="AJ8" s="26">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="6">
         <f>F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="6">
         <f>F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="26">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="26">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="30">
         <f>G8</f>
@@ -2546,19 +2546,19 @@
       </c>
       <c r="AP8" s="6">
         <f>F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="26">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="26">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="26">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="29"/>
       <c r="AV8" s="11"/>
@@ -2648,31 +2648,31 @@
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="19">
         <v>1</v>
       </c>
       <c r="G9" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="21">
         <v>8</v>
       </c>
       <c r="I9" s="35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="26">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="6">
         <f>F9</f>
@@ -2680,11 +2680,11 @@
       </c>
       <c r="N9" s="27">
         <f>G9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="26">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" s="6">
         <f>F9</f>
@@ -2692,27 +2692,27 @@
       </c>
       <c r="Q9" s="27">
         <f>G9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" s="27">
         <f>G9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" s="26">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" s="26">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9" s="26">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" s="26">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9" s="6">
         <f>F9</f>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="X9" s="26">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="6">
         <f>F9</f>
@@ -2728,35 +2728,35 @@
       </c>
       <c r="Z9" s="26">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="27">
         <f>G9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="26">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="27">
         <f>G9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD9" s="26">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="26">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="26">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="26">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="6">
         <f>F9</f>
@@ -2768,11 +2768,11 @@
       </c>
       <c r="AJ9" s="27">
         <f>G9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK9" s="26">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="6">
         <f>F9</f>
@@ -2784,15 +2784,15 @@
       </c>
       <c r="AN9" s="26">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="26">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="30">
         <f>G9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ9" s="6">
         <f>F9</f>
@@ -2800,11 +2800,11 @@
       </c>
       <c r="AR9" s="26">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="26">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="29"/>
       <c r="AV9" s="11"/>
@@ -3140,10 +3140,10 @@
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="20">
         <v>2</v>
@@ -3156,27 +3156,27 @@
       </c>
       <c r="J11" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="26">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="6">
         <f>F11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="26">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" s="6">
         <f>F11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="27">
         <f>G11</f>
@@ -3184,11 +3184,11 @@
       </c>
       <c r="Q11" s="26">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="6">
         <f>F11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="27">
         <f>G11</f>
@@ -3200,35 +3200,35 @@
       </c>
       <c r="U11" s="26">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" s="26">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W11" s="26">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X11" s="26">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="6">
         <f>F11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="6">
         <f>F11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="26">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="26">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="27">
         <f>G11</f>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="AD11" s="26">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="27">
         <f>G11</f>
@@ -3244,27 +3244,27 @@
       </c>
       <c r="AF11" s="26">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="26">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="26">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="26">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="6">
         <f>F11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="6">
         <f>F11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="27">
         <f>G11</f>
@@ -3272,23 +3272,23 @@
       </c>
       <c r="AM11" s="26">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="6">
         <f>F11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11" s="26">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="26">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="26">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="30">
         <f>G11</f>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="AS11" s="6">
         <f>F11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="29"/>
       <c r="AV11" s="11"/>
@@ -3398,7 +3398,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="26">
         <f t="shared" si="0"/>
@@ -3632,163 +3632,163 @@
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="21">
         <v>12</v>
       </c>
       <c r="I13" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="26">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="6">
         <f>F13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="6">
         <f>F13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" s="26">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="6">
         <f>F13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R13" s="27">
         <f>G13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" s="26">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="6">
         <f>F13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13" s="27">
         <f>G13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V13" s="27">
         <f>G13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" s="26">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="26">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="26">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="26">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="6">
         <f>F13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="6">
         <f>F13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="26">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="26">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="27">
         <f>G13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF13" s="26">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="27">
         <f>G13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="26">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="26">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="26">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="26">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="6">
         <f>F13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="6">
         <f>F13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="27">
         <f>G13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO13" s="30">
         <f>G13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP13" s="6">
         <f>F13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="26">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="26">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="26">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="29"/>
       <c r="AV13" s="11"/>
@@ -3878,10 +3878,10 @@
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="20">
         <v>2</v>
@@ -3890,43 +3890,43 @@
         <v>13</v>
       </c>
       <c r="I14" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="26">
         <f>E14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="26">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="6">
         <f>F14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="6">
         <f>F14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="26">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="6">
         <f>F14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="27">
         <f>G14</f>
@@ -3934,11 +3934,11 @@
       </c>
       <c r="T14" s="26">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="6">
         <f>F14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="27">
         <f>G14</f>
@@ -3950,11 +3950,11 @@
       </c>
       <c r="X14" s="26">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="26">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="27">
         <f>G14</f>
@@ -3962,23 +3962,23 @@
       </c>
       <c r="AA14" s="26">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="6">
         <f>F14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="6">
         <f>F14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="26">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="26">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="27">
         <f>G14</f>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="AG14" s="26">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="27">
         <f>G14</f>
@@ -3994,31 +3994,31 @@
       </c>
       <c r="AI14" s="26">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="26">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="26">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="26">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="6">
         <f>F14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="6">
         <f>F14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="26">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="30">
         <f>G14</f>
@@ -4026,15 +4026,15 @@
       </c>
       <c r="AQ14" s="6">
         <f>F14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="26">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="26">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="29"/>
       <c r="AV14" s="11"/>
@@ -4124,163 +4124,163 @@
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="21">
         <v>14</v>
       </c>
       <c r="I15" s="35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" s="26">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="26">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" s="6">
         <f>F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="26">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" s="6">
         <f>F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="26">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" s="26">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S15" s="6">
         <f>F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="27">
         <f>G15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15" s="26">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V15" s="6">
         <f>F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="27">
         <f>G15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15" s="27">
         <f>G15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="26">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="6">
         <f>F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="27">
         <f>G15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB15" s="26">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="6">
         <f>F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="6">
         <f>F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="26">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="26">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="27">
         <f>G15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH15" s="26">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="27">
         <f>G15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ15" s="26">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="26">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="26">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="26">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="6">
         <f>F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="26">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="26">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="30">
         <f>G15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR15" s="6">
         <f>F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" s="26">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="29"/>
       <c r="AV15" s="11"/>
@@ -4370,163 +4370,163 @@
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="21">
         <v>15</v>
       </c>
       <c r="I16" s="35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="26">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" s="26">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" s="26">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" s="6">
         <f>F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="26">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="6">
         <f>F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16" s="26">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16" s="6">
         <f>F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="27">
         <f>G16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" s="26">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W16" s="6">
         <f>F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="27">
         <f>G16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="27">
         <f>G16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="6">
         <f>F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="6">
         <f>F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="27">
         <f>G16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="26">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="6">
         <f>F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="6">
         <f>F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="26">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="26">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="27">
         <f>G16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI16" s="26">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="27">
         <f>G16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK16" s="26">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="26">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="26">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="26">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="26">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="26">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="26">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="30">
         <f>G16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS16" s="6">
         <f>F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="29"/>
       <c r="AV16" s="11"/>
@@ -6611,27 +6611,27 @@
       </c>
       <c r="J27" s="13">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="13">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="13">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="42"/>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="Q27" s="9">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="9">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="9">
         <f t="shared" si="45"/>
@@ -6655,35 +6655,35 @@
       </c>
       <c r="U27" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="9">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="9">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="9">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="9">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="9">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="9">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="9">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="9">
         <f t="shared" si="55"/>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="AD27" s="9">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="57"/>
@@ -6699,27 +6699,27 @@
       </c>
       <c r="AF27" s="9">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" s="9">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="9">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27" s="9">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" s="9">
         <f t="shared" si="62"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="9">
         <f t="shared" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="9">
         <f t="shared" si="64"/>
@@ -6727,23 +6727,23 @@
       </c>
       <c r="AM27" s="9">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN27" s="9">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27" s="9">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="9">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27" s="9">
         <f t="shared" si="70"/>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="AS27" s="9">
         <f t="shared" si="71"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="31"/>
       <c r="BX27" s="11"/>
@@ -6794,31 +6794,31 @@
       </c>
       <c r="J28" s="13">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="13">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" si="43"/>
@@ -6826,11 +6826,11 @@
       </c>
       <c r="R28" s="9">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="9">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="9">
         <f t="shared" si="46"/>
@@ -6842,35 +6842,35 @@
       </c>
       <c r="V28" s="9">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="9">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="9">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="9">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="9">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="9">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="9">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="9">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="9">
         <f t="shared" si="56"/>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF28" s="9">
         <f t="shared" si="58"/>
@@ -6886,27 +6886,27 @@
       </c>
       <c r="AG28" s="9">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28" s="9">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="9">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="9">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28" s="9">
         <f t="shared" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="9">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="9">
         <f t="shared" si="65"/>
@@ -6914,23 +6914,23 @@
       </c>
       <c r="AN28" s="9">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="67"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="9">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="9">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR28" s="9">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS28" s="9">
         <f t="shared" si="71"/>
@@ -7765,7 +7765,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="32">
         <f t="shared" ref="J34:AS34" si="72">SUM(J18:J32)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="72"/>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="N34" s="7">
         <f t="shared" si="72"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O34" s="7">
         <f t="shared" si="72"/>
@@ -7789,11 +7789,11 @@
       </c>
       <c r="P34" s="7">
         <f t="shared" si="72"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="7">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" si="72"/>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="S34" s="7">
         <f t="shared" si="72"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T34" s="7">
         <f t="shared" si="72"/>
@@ -7809,19 +7809,19 @@
       </c>
       <c r="U34" s="7">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V34" s="7">
         <f t="shared" si="72"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W34" s="7">
         <f t="shared" si="72"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X34" s="7">
         <f t="shared" si="72"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y34" s="7">
         <f t="shared" si="72"/>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="Z34" s="7">
         <f t="shared" si="72"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA34" s="7">
         <f t="shared" si="72"/>
@@ -7837,35 +7837,35 @@
       </c>
       <c r="AB34" s="7">
         <f t="shared" si="72"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC34" s="7">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD34" s="7">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE34" s="7">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG34" s="7">
         <f t="shared" si="72"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH34" s="7">
         <f t="shared" si="72"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI34" s="7">
         <f t="shared" si="72"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ34" s="7">
         <f t="shared" si="72"/>
@@ -7873,15 +7873,15 @@
       </c>
       <c r="AK34" s="7">
         <f t="shared" si="72"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL34" s="7">
         <f t="shared" si="72"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM34" s="7">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN34" s="7">
         <f t="shared" si="72"/>
@@ -7893,19 +7893,19 @@
       </c>
       <c r="AP34" s="7">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ34" s="7">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR34" s="7">
         <f t="shared" si="72"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS34" s="7">
         <f t="shared" si="72"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT34" s="29"/>
       <c r="BX34" s="11"/>
@@ -7937,7 +7937,7 @@
       <c r="H35" s="54"/>
       <c r="J35" s="33">
         <f t="shared" ref="J35:AS35" si="73">IF(J34&gt;8,J34,".")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K35" s="33" t="str">
         <f t="shared" si="73"/>
@@ -7959,9 +7959,9 @@
         <f t="shared" si="73"/>
         <v>.</v>
       </c>
-      <c r="P35" s="33">
+      <c r="P35" s="33" t="str">
         <f t="shared" si="73"/>
-        <v>9</v>
+        <v>.</v>
       </c>
       <c r="Q35" s="33" t="str">
         <f t="shared" si="73"/>
@@ -7971,9 +7971,9 @@
         <f t="shared" si="73"/>
         <v>.</v>
       </c>
-      <c r="S35" s="33">
+      <c r="S35" s="33" t="str">
         <f t="shared" si="73"/>
-        <v>9</v>
+        <v>.</v>
       </c>
       <c r="T35" s="33" t="str">
         <f t="shared" si="73"/>
@@ -7999,9 +7999,9 @@
         <f t="shared" si="73"/>
         <v>.</v>
       </c>
-      <c r="Z35" s="33">
+      <c r="Z35" s="33" t="str">
         <f t="shared" si="73"/>
-        <v>10</v>
+        <v>.</v>
       </c>
       <c r="AA35" s="33" t="str">
         <f t="shared" si="73"/>
@@ -8043,13 +8043,13 @@
         <f t="shared" si="73"/>
         <v>.</v>
       </c>
-      <c r="AK35" s="33">
+      <c r="AK35" s="33" t="str">
         <f t="shared" si="73"/>
-        <v>10</v>
-      </c>
-      <c r="AL35" s="33">
+        <v>.</v>
+      </c>
+      <c r="AL35" s="33" t="str">
         <f t="shared" si="73"/>
-        <v>9</v>
+        <v>.</v>
       </c>
       <c r="AM35" s="33" t="str">
         <f t="shared" si="73"/>
@@ -8063,21 +8063,21 @@
         <f t="shared" si="73"/>
         <v>9</v>
       </c>
-      <c r="AP35" s="33" t="str">
+      <c r="AP35" s="33">
         <f t="shared" si="73"/>
-        <v>.</v>
-      </c>
-      <c r="AQ35" s="33" t="str">
+        <v>9</v>
+      </c>
+      <c r="AQ35" s="33">
         <f t="shared" si="73"/>
-        <v>.</v>
-      </c>
-      <c r="AR35" s="33" t="str">
+        <v>9</v>
+      </c>
+      <c r="AR35" s="33">
         <f t="shared" si="73"/>
-        <v>.</v>
+        <v>9</v>
       </c>
       <c r="AS35" s="33">
         <f t="shared" si="73"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT35" s="15"/>
       <c r="AU35" s="4"/>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="P36" s="16">
         <f t="shared" si="74"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="74"/>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="S36" s="16">
         <f t="shared" si="74"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="16">
         <f t="shared" si="74"/>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="AL36" s="16">
         <f t="shared" si="74"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="16">
         <f t="shared" si="74"/>
@@ -8305,19 +8305,19 @@
       </c>
       <c r="AP36" s="16">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" s="16">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36" s="16">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS36" s="16">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT36" s="15"/>
       <c r="AU36" s="4"/>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="Z37" s="16">
         <f t="shared" si="75"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="16">
         <f t="shared" si="75"/>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="AK37" s="16">
         <f t="shared" si="75"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="16">
         <f t="shared" si="75"/>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="AS37" s="16">
         <f t="shared" si="75"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="15"/>
       <c r="AU37" s="4"/>
